--- a/output_perbandingan_akurasi.xlsx
+++ b/output_perbandingan_akurasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         <v>66.23</v>
       </c>
       <c r="C2" t="n">
-        <v>71.43000000000001</v>
+        <v>76.62</v>
       </c>
       <c r="D2" t="n">
         <v>76.62</v>
@@ -481,7 +481,7 @@
         <v>70.13</v>
       </c>
       <c r="C3" t="n">
-        <v>74.03</v>
+        <v>70.13</v>
       </c>
       <c r="D3" t="n">
         <v>76.62</v>
@@ -497,7 +497,7 @@
         <v>82.89</v>
       </c>
       <c r="C4" t="n">
-        <v>80.26000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="D4" t="n">
         <v>81.58</v>
@@ -513,7 +513,7 @@
         <v>74.03</v>
       </c>
       <c r="C5" t="n">
-        <v>68.83</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>80.52</v>
@@ -529,7 +529,7 @@
         <v>76.62</v>
       </c>
       <c r="C6" t="n">
-        <v>74.03</v>
+        <v>76.62</v>
       </c>
       <c r="D6" t="n">
         <v>83.12</v>
@@ -545,7 +545,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>76.62</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>81.81999999999999</v>
@@ -561,7 +561,7 @@
         <v>77.92</v>
       </c>
       <c r="C8" t="n">
-        <v>70.13</v>
+        <v>77.92</v>
       </c>
       <c r="D8" t="n">
         <v>77.92</v>
@@ -577,7 +577,7 @@
         <v>80.26000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>76.31999999999999</v>
+        <v>82.89</v>
       </c>
       <c r="D9" t="n">
         <v>85.53</v>
@@ -593,7 +593,7 @@
         <v>75.31999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>67.53</v>
+        <v>62.34</v>
       </c>
       <c r="D10" t="n">
         <v>76.62</v>
@@ -609,10 +609,26 @@
         <v>74.03</v>
       </c>
       <c r="C11" t="n">
-        <v>84.42</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>88.31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80.87</v>
       </c>
     </row>
   </sheetData>
